--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25417" windowHeight="11112"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="评价模板导入" sheetId="1" r:id="rId1"/>
@@ -65,14 +65,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -84,7 +76,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>评价时间(年/月/日 时:分)</t>
+      <t>评价时间(年-月-日 时:分)</t>
     </r>
   </si>
   <si>
@@ -165,8 +157,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
@@ -195,6 +187,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,16 +225,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,32 +278,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,36 +293,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,39 +301,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,49 +340,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,121 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,32 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,15 +589,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,6 +607,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,17 +1145,17 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.0825688073394" customWidth="1"/>
-    <col min="2" max="2" width="15.0733944954128" customWidth="1"/>
-    <col min="3" max="3" width="30.2844036697248" customWidth="1"/>
-    <col min="4" max="4" width="12.2110091743119" customWidth="1"/>
-    <col min="5" max="5" width="12.4587155963303" customWidth="1"/>
-    <col min="6" max="6" width="51.348623853211" customWidth="1"/>
+    <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.075" customWidth="1"/>
+    <col min="3" max="3" width="30.2833333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.2083333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.4583333333333" customWidth="1"/>
+    <col min="6" max="6" width="51.35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:6">

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -150,17 +158,23 @@
       <t>(限200字，否则会导入失败)</t>
     </r>
   </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>审核回复</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -187,17 +201,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,121 +315,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,25 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,13 +572,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,47 +629,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +665,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1142,13 +1156,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
     <col min="2" max="2" width="15.075" customWidth="1"/>
@@ -1156,9 +1170,11 @@
     <col min="4" max="4" width="12.2083333333333" customWidth="1"/>
     <col min="5" max="5" width="12.4583333333333" customWidth="1"/>
     <col min="6" max="6" width="51.35" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:6">
+    <row r="1" ht="23" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,6 +1192,12 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="3:3">

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -64,52 +64,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>评价时间(年-月-日 时:分)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>站点</t>
-    </r>
+    <t>*评价时间(年-月-日 时:分)</t>
   </si>
   <si>
     <r>
@@ -170,13 +125,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +150,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -208,8 +170,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,37 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -269,15 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,47 +284,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,13 +316,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,13 +418,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,151 +472,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,15 +507,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,41 +525,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +558,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -645,6 +592,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,10 +615,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,144 +627,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1156,68 +1124,61 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
     <col min="2" max="2" width="15.075" customWidth="1"/>
     <col min="3" max="3" width="30.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.2083333333333" customWidth="1"/>
-    <col min="5" max="5" width="12.4583333333333" customWidth="1"/>
-    <col min="6" max="6" width="51.35" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="12.4583333333333" customWidth="1"/>
+    <col min="5" max="5" width="51.35" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:8">
+    <row r="1" ht="23" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="3:3">
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>"大陆PC端,大陆移动端,香港PC端,香港移动端,美国PC端,美国移动端,台湾PC端,台湾移动端"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -64,7 +64,34 @@
     </r>
   </si>
   <si>
-    <t>*评价时间(年-月-日 时:分)</t>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>评价时间(年-月-日 时:分)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>站点</t>
+    </r>
   </si>
   <si>
     <r>
@@ -124,10 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -150,29 +176,143 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,124 +326,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -316,25 +342,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,157 +516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +533,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -527,9 +577,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,15 +619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -572,41 +633,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +641,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,153 +653,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1124,24 +1144,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
     <col min="2" max="2" width="15.075" customWidth="1"/>
     <col min="3" max="3" width="30.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.4583333333333" customWidth="1"/>
-    <col min="5" max="5" width="51.35" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="5" max="5" width="12.4583333333333" customWidth="1"/>
+    <col min="6" max="6" width="51.35" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:7">
+    <row r="1" ht="23" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,10 +1172,10 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1163,22 +1184,16 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="3:3">
-      <c r="C2" s="4"/>
-    </row>
-    <row r="4" customHeight="1" spans="3:3">
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="3:3">
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="3:3">
-      <c r="C6" s="5"/>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"大陆PC端,大陆移动端,香港PC端,香港移动端,美国PC端,美国移动端,台湾PC端,台湾移动端"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"3,4,5"</formula1>
     </dataValidation>
   </dataValidations>

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -65,6 +65,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -80,6 +88,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -183,7 +199,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,122 +257,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,6 +291,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -342,187 +358,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,56 +549,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,6 +571,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -615,6 +596,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -653,133 +669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,7 +1163,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -65,14 +65,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -83,7 +75,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>评价时间(年-月-日 时:分)</t>
+      <t>评价时间(年/月/日 时:分)</t>
     </r>
   </si>
   <si>
@@ -199,12 +191,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -221,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +266,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,9 +296,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,60 +322,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,32 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +585,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -629,8 +621,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,133 +661,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1155,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>
@@ -1206,11 +1198,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>"3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"大陆PC端,大陆移动端,香港PC端,香港移动端,美国PC端,美国移动端,台湾PC端,台湾移动端"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/backend/downloads/comments/orderComment.xlsx
+++ b/web/backend/downloads/comments/orderComment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="25417" windowHeight="11112"/>
   </bookViews>
   <sheets>
     <sheet name="评价模板导入" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>评价时间(年/月/日 时:分)</t>
+      <t>评价时间(年/月/日)</t>
     </r>
   </si>
   <si>
@@ -191,6 +191,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -198,8 +228,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,24 +280,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,82 +328,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,151 +350,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,31 +524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,30 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,8 +562,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,6 +603,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,6 +626,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,137 +661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -802,6 +802,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,22 +1155,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="50" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.0833333333333" customWidth="1"/>
-    <col min="2" max="2" width="15.075" customWidth="1"/>
-    <col min="3" max="3" width="30.2833333333333" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="12.4583333333333" customWidth="1"/>
-    <col min="6" max="6" width="51.35" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="14.0825688073394" customWidth="1"/>
+    <col min="2" max="2" width="15.0733944954128" customWidth="1"/>
+    <col min="3" max="3" width="25.302752293578" customWidth="1"/>
+    <col min="4" max="4" width="13.2477064220183" customWidth="1"/>
+    <col min="5" max="5" width="12.4587155963303" customWidth="1"/>
+    <col min="6" max="6" width="51.348623853211" customWidth="1"/>
+    <col min="7" max="7" width="15.7522935779817" customWidth="1"/>
+    <col min="8" max="8" width="26.6238532110092" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:8">
@@ -1196,13 +1199,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" customHeight="1" spans="3:3">
+      <c r="C2" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>"大陆PC端,大陆移动端,香港PC端,香港移动端,美国PC端,美国移动端,台湾PC端,台湾移动端"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
       <formula1>"3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
-      <formula1>"大陆PC端,大陆移动端,香港PC端,香港移动端,美国PC端,美国移动端,台湾PC端,台湾移动端"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
